--- a/Tests/integrationTest.xlsx
+++ b/Tests/integrationTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shreya\Desktop\Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOWNLOADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43186F6-B328-43BD-B7D4-3FEFC161B4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A624672D-397A-4653-924D-E67DAF84781B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="97">
   <si>
     <t>OBJECTIVE</t>
   </si>
@@ -229,6 +229,93 @@
   </si>
   <si>
     <t>The data srtored should appear</t>
+  </si>
+  <si>
+    <t>ADMIN HELPDESK</t>
+  </si>
+  <si>
+    <t>All buttons should work</t>
+  </si>
+  <si>
+    <t>Test the Api used</t>
+  </si>
+  <si>
+    <t>Test the Database used</t>
+  </si>
+  <si>
+    <t>Buttons and links should work</t>
+  </si>
+  <si>
+    <t>The data should be available</t>
+  </si>
+  <si>
+    <t>The table should be working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be redirected </t>
+  </si>
+  <si>
+    <t>Data should be transferred</t>
+  </si>
+  <si>
+    <t>Data should beb stored</t>
+  </si>
+  <si>
+    <t>USER CONTACT US</t>
+  </si>
+  <si>
+    <t>All placeholders must work</t>
+  </si>
+  <si>
+    <t>Form should work</t>
+  </si>
+  <si>
+    <t>We should be able to value</t>
+  </si>
+  <si>
+    <t>Should be redirected</t>
+  </si>
+  <si>
+    <t>USER REVIEW</t>
+  </si>
+  <si>
+    <t>/review/addReview : POST -&gt; CHECKED &amp; TESTED IN POSTMAN</t>
+  </si>
+  <si>
+    <t>/review/Reviews : GET -&gt; CHECKED &amp; TESTED IN POSTMAN</t>
+  </si>
+  <si>
+    <t>/review/delete/{id} : DELETE -&gt; CHECKED &amp; TESTED IN POSTMAN</t>
+  </si>
+  <si>
+    <t>/helpdesk/Helpdeskdelete/{id} : DELETE -&gt; CHECKED &amp; TESTED IN POSTMAN</t>
+  </si>
+  <si>
+    <t>/helpdesk/Helpdesks :  GET -&gt; CHECKED &amp; TESTED IN POSTMAN</t>
+  </si>
+  <si>
+    <t>/helpdesk/addHelpdesk : POST -&gt; CHECKED &amp; TESTED IN POSTMAN</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>Every component should work individually</t>
+  </si>
+  <si>
+    <t>Should be working as intended</t>
+  </si>
+  <si>
+    <t>Whole backend should pass the test</t>
+  </si>
+  <si>
+    <t>Whole backend should have no errors</t>
+  </si>
+  <si>
+    <t>Frontend</t>
+  </si>
+  <si>
+    <t>Each component is tested manually and in Postman &amp; MySql</t>
   </si>
 </sst>
 </file>
@@ -264,8 +351,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,19 +634,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.33203125" customWidth="1"/>
     <col min="3" max="3" width="9.21875" customWidth="1"/>
-    <col min="14" max="14" width="127.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" customWidth="1"/>
+    <col min="14" max="14" width="137.21875" customWidth="1"/>
     <col min="15" max="15" width="13.77734375" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" customWidth="1"/>
+    <col min="17" max="17" width="38.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -1146,6 +1235,341 @@
         <v>13</v>
       </c>
     </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" t="s">
+        <v>69</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" t="s">
+        <v>88</v>
+      </c>
+      <c r="O43" t="s">
+        <v>75</v>
+      </c>
+      <c r="R43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" t="s">
+        <v>73</v>
+      </c>
+      <c r="O44" t="s">
+        <v>76</v>
+      </c>
+      <c r="R44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O45" t="s">
+        <v>77</v>
+      </c>
+      <c r="R45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="H46" t="s">
+        <v>91</v>
+      </c>
+      <c r="O46" t="s">
+        <v>92</v>
+      </c>
+      <c r="R46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H47" t="s">
+        <v>93</v>
+      </c>
+      <c r="O47" t="s">
+        <v>94</v>
+      </c>
+      <c r="R47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H48" t="s">
+        <v>91</v>
+      </c>
+      <c r="O48" t="s">
+        <v>96</v>
+      </c>
+      <c r="R48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>79</v>
+      </c>
+      <c r="L51" t="s">
+        <v>89</v>
+      </c>
+      <c r="O51" t="s">
+        <v>59</v>
+      </c>
+      <c r="R51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>80</v>
+      </c>
+      <c r="H52" t="s">
+        <v>79</v>
+      </c>
+      <c r="O52" t="s">
+        <v>81</v>
+      </c>
+      <c r="R52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>69</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="O53" t="s">
+        <v>82</v>
+      </c>
+      <c r="R53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>70</v>
+      </c>
+      <c r="H54" t="s">
+        <v>73</v>
+      </c>
+      <c r="O54" t="s">
+        <v>76</v>
+      </c>
+      <c r="R54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>71</v>
+      </c>
+      <c r="H55" t="s">
+        <v>74</v>
+      </c>
+      <c r="L55" t="s">
+        <v>87</v>
+      </c>
+      <c r="O55" t="s">
+        <v>77</v>
+      </c>
+      <c r="R55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
+        <v>90</v>
+      </c>
+      <c r="H56" t="s">
+        <v>91</v>
+      </c>
+      <c r="O56" t="s">
+        <v>92</v>
+      </c>
+      <c r="R56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H57" t="s">
+        <v>93</v>
+      </c>
+      <c r="O57" t="s">
+        <v>94</v>
+      </c>
+      <c r="R57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
+        <v>95</v>
+      </c>
+      <c r="H58" t="s">
+        <v>91</v>
+      </c>
+      <c r="O58" t="s">
+        <v>96</v>
+      </c>
+      <c r="R58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>79</v>
+      </c>
+      <c r="L61" t="s">
+        <v>84</v>
+      </c>
+      <c r="O61" t="s">
+        <v>59</v>
+      </c>
+      <c r="R61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
+        <v>80</v>
+      </c>
+      <c r="H62" t="s">
+        <v>79</v>
+      </c>
+      <c r="O62" t="s">
+        <v>81</v>
+      </c>
+      <c r="R62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E63" t="s">
+        <v>69</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="L63" t="s">
+        <v>85</v>
+      </c>
+      <c r="O63" t="s">
+        <v>82</v>
+      </c>
+      <c r="R63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H64" t="s">
+        <v>73</v>
+      </c>
+      <c r="O64" t="s">
+        <v>76</v>
+      </c>
+      <c r="R64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E65" t="s">
+        <v>71</v>
+      </c>
+      <c r="H65" t="s">
+        <v>74</v>
+      </c>
+      <c r="L65" t="s">
+        <v>86</v>
+      </c>
+      <c r="O65" t="s">
+        <v>77</v>
+      </c>
+      <c r="R65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="5:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E66" t="s">
+        <v>90</v>
+      </c>
+      <c r="H66" t="s">
+        <v>91</v>
+      </c>
+      <c r="O66" t="s">
+        <v>92</v>
+      </c>
+      <c r="R66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="H67" t="s">
+        <v>93</v>
+      </c>
+      <c r="O67" t="s">
+        <v>94</v>
+      </c>
+      <c r="R67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="5:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E68" t="s">
+        <v>95</v>
+      </c>
+      <c r="H68" t="s">
+        <v>91</v>
+      </c>
+      <c r="O68" t="s">
+        <v>96</v>
+      </c>
+      <c r="R68" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
